--- a/tests/fixtures/excel/basic_example.xlsx
+++ b/tests/fixtures/excel/basic_example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="0" windowWidth="28300" windowHeight="20520" activeTab="1"/>
+    <workbookView xWindow="1280" yWindow="0" windowWidth="39180" windowHeight="20520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skip this sheet" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="67">
   <si>
     <t>Database</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>There can be blank lines before the activity definitions.</t>
+  </si>
+  <si>
+    <t>You can also use human-friendly identifiers like "acetic acid", just make sure they are unique</t>
   </si>
 </sst>
 </file>
@@ -295,8 +298,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,17 +318,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,13 +666,13 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" customWidth="1"/>
@@ -742,6 +749,9 @@
       </c>
       <c r="B8" t="s">
         <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13">
